--- a/Havo-leerlingenlijst_JF_totaal.xlsx
+++ b/Havo-leerlingenlijst_JF_totaal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Project Windesheim\Windesheim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Henri\Dropbox\KBS\Excel documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Stamnr</t>
   </si>
@@ -33,1307 +33,68 @@
     <t>5Hb</t>
   </si>
   <si>
-    <t>5Hc</t>
-  </si>
-  <si>
-    <t>5Hd</t>
-  </si>
-  <si>
-    <t>R5Ha</t>
-  </si>
-  <si>
-    <t>R5Hb</t>
-  </si>
-  <si>
     <t>Roepnaam</t>
-  </si>
-  <si>
-    <t>Fabiënne</t>
-  </si>
-  <si>
-    <t>Lydia</t>
-  </si>
-  <si>
-    <t>Maurits</t>
-  </si>
-  <si>
-    <t>Arnoud</t>
-  </si>
-  <si>
-    <t>Jarno</t>
-  </si>
-  <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Lilian</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Gerlinde</t>
-  </si>
-  <si>
-    <t>Nienke</t>
-  </si>
-  <si>
-    <t>Rutger</t>
-  </si>
-  <si>
-    <t>Ruben</t>
-  </si>
-  <si>
-    <t>Eline</t>
-  </si>
-  <si>
-    <t>Rosanne</t>
-  </si>
-  <si>
-    <t>Gerjan</t>
-  </si>
-  <si>
-    <t>Arno</t>
-  </si>
-  <si>
-    <t>Jorian</t>
-  </si>
-  <si>
-    <t>Elise</t>
-  </si>
-  <si>
-    <t>Marit</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Jacco</t>
-  </si>
-  <si>
-    <t>Laurens</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Daniëlle</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>Wilbert</t>
-  </si>
-  <si>
-    <t>Leanne</t>
-  </si>
-  <si>
-    <t>Geert</t>
-  </si>
-  <si>
-    <t>Daniël</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Maaike</t>
-  </si>
-  <si>
-    <t>Diederick</t>
-  </si>
-  <si>
-    <t>Judith</t>
-  </si>
-  <si>
-    <t>Dianne</t>
-  </si>
-  <si>
-    <t>Arjan</t>
-  </si>
-  <si>
-    <t>Anne-Wil</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Pieter</t>
-  </si>
-  <si>
-    <t>Marije</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Joanne</t>
-  </si>
-  <si>
-    <t>Kees-Jan</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>Niek</t>
-  </si>
-  <si>
-    <t>Inge</t>
-  </si>
-  <si>
-    <t>Danique</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Sanne</t>
-  </si>
-  <si>
-    <t>Jelle</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>Anne-Ruth</t>
-  </si>
-  <si>
-    <t>Henk</t>
-  </si>
-  <si>
-    <t>Gert-Jan</t>
-  </si>
-  <si>
-    <t>Daan</t>
-  </si>
-  <si>
-    <t>Teun</t>
-  </si>
-  <si>
-    <t>Mirjam</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Marinke</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Christa</t>
-  </si>
-  <si>
-    <t>Evert</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Lieke</t>
-  </si>
-  <si>
-    <t>Josan</t>
-  </si>
-  <si>
-    <t>Anouk</t>
-  </si>
-  <si>
-    <t>Sharon</t>
-  </si>
-  <si>
-    <t>Marjolein</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Marijn</t>
-  </si>
-  <si>
-    <t>Lennard</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Karine</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Renske</t>
-  </si>
-  <si>
-    <t>Marina</t>
-  </si>
-  <si>
-    <t>Gerbert</t>
-  </si>
-  <si>
-    <t>Pauline</t>
-  </si>
-  <si>
-    <t>Anneleen</t>
-  </si>
-  <si>
-    <t>Marten</t>
-  </si>
-  <si>
-    <t>Bert Jan</t>
-  </si>
-  <si>
-    <t>Jari</t>
-  </si>
-  <si>
-    <t>Erjan</t>
-  </si>
-  <si>
-    <t>Elseline</t>
-  </si>
-  <si>
-    <t>Leindert</t>
-  </si>
-  <si>
-    <t>Cornélie</t>
-  </si>
-  <si>
-    <t>Eric-Jan</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>Nannyke</t>
-  </si>
-  <si>
-    <t>Melinda</t>
-  </si>
-  <si>
-    <t>Margreet</t>
-  </si>
-  <si>
-    <t>Bertina</t>
-  </si>
-  <si>
-    <t>Ada</t>
-  </si>
-  <si>
-    <t>Alyke</t>
-  </si>
-  <si>
-    <t>Harm Jan</t>
-  </si>
-  <si>
-    <t>Gijs</t>
-  </si>
-  <si>
-    <t>Ralphine</t>
-  </si>
-  <si>
-    <t>Marwin</t>
-  </si>
-  <si>
-    <t>Gerrelt</t>
-  </si>
-  <si>
-    <t>Henriëtte</t>
-  </si>
-  <si>
-    <t>Celia</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Hielke</t>
-  </si>
-  <si>
-    <t>Hanneke</t>
-  </si>
-  <si>
-    <t>Annebeth</t>
-  </si>
-  <si>
-    <t>Adrianne</t>
-  </si>
-  <si>
-    <t>Roelina</t>
-  </si>
-  <si>
-    <t>Lucie</t>
-  </si>
-  <si>
-    <t>Hennekien</t>
-  </si>
-  <si>
-    <t>Melanie</t>
-  </si>
-  <si>
-    <t>Jansje</t>
-  </si>
-  <si>
-    <t>Meindert</t>
-  </si>
-  <si>
-    <t>Annemarije</t>
-  </si>
-  <si>
-    <t>Teunita</t>
-  </si>
-  <si>
-    <t>Peterick</t>
-  </si>
-  <si>
-    <t>Henrieke</t>
-  </si>
-  <si>
-    <t>Bertran</t>
-  </si>
-  <si>
-    <t>Debora</t>
-  </si>
-  <si>
-    <t>Eleanne</t>
-  </si>
-  <si>
-    <t>Marnelle</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Pieter-Jan</t>
-  </si>
-  <si>
-    <t>Hein</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Ernst-Jan</t>
-  </si>
-  <si>
-    <t>Harriët</t>
-  </si>
-  <si>
-    <t>Arina</t>
-  </si>
-  <si>
-    <t>Jan-Peter</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>Elsbeth</t>
-  </si>
-  <si>
-    <t>Naomy</t>
-  </si>
-  <si>
-    <t>Jorike</t>
-  </si>
-  <si>
-    <t>Gerrike</t>
-  </si>
-  <si>
-    <t>Jan Albert</t>
-  </si>
-  <si>
-    <t>Gabriëlla</t>
-  </si>
-  <si>
-    <t>Wolter</t>
-  </si>
-  <si>
-    <t>Kars</t>
   </si>
   <si>
     <t>Tussenv</t>
   </si>
   <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>van den</t>
-  </si>
-  <si>
-    <t>van de</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>van der</t>
-  </si>
-  <si>
-    <t>den</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>ter</t>
-  </si>
-  <si>
     <t>Achternaam</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>Ebbers</t>
-  </si>
-  <si>
-    <t>Munt</t>
-  </si>
-  <si>
-    <t>Berg</t>
-  </si>
-  <si>
-    <t>Brink</t>
-  </si>
-  <si>
-    <t>Ruitenbeek</t>
-  </si>
-  <si>
-    <t>Ruiter</t>
-  </si>
-  <si>
-    <t>Weerd</t>
-  </si>
-  <si>
-    <t>Jansen</t>
-  </si>
-  <si>
-    <t>Keurhorst</t>
-  </si>
-  <si>
-    <t>Methorst</t>
-  </si>
-  <si>
-    <t>Pol</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Bunt</t>
-  </si>
-  <si>
-    <t>Hertog</t>
-  </si>
-  <si>
-    <t>Veldhuizen</t>
-  </si>
-  <si>
-    <t>Bruin</t>
-  </si>
-  <si>
-    <t>Heij</t>
-  </si>
-  <si>
-    <t>Haar</t>
-  </si>
-  <si>
-    <t>Kooten</t>
-  </si>
-  <si>
-    <t>Luttikhuizen</t>
-  </si>
-  <si>
-    <t>Guis</t>
-  </si>
-  <si>
-    <t>Linden</t>
-  </si>
-  <si>
-    <t>Nijkamp</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Haase</t>
-  </si>
-  <si>
-    <t>Jong</t>
-  </si>
-  <si>
-    <t>Karels</t>
-  </si>
-  <si>
-    <t>Mulder</t>
-  </si>
-  <si>
-    <t>Riet</t>
-  </si>
-  <si>
-    <t>Hendrikse</t>
-  </si>
-  <si>
-    <t>Bos</t>
-  </si>
-  <si>
-    <t>Pouw</t>
-  </si>
-  <si>
-    <t>Beek</t>
-  </si>
-  <si>
-    <t>Roo</t>
-  </si>
-  <si>
-    <t>Roos</t>
-  </si>
-  <si>
-    <t>Warnaar van der Stouw</t>
-  </si>
-  <si>
-    <t>Hoorn</t>
-  </si>
-  <si>
-    <t>Wolvers</t>
-  </si>
-  <si>
-    <t>Baan</t>
-  </si>
-  <si>
-    <t>Essen</t>
-  </si>
-  <si>
-    <t>Schouten</t>
-  </si>
-  <si>
-    <t>Veldhuisen</t>
-  </si>
-  <si>
-    <t>Roekel</t>
-  </si>
-  <si>
-    <t>Terlouw</t>
-  </si>
-  <si>
-    <t>Voorde</t>
-  </si>
-  <si>
-    <t>Hakkenberg</t>
-  </si>
-  <si>
-    <t>Slingerland</t>
-  </si>
-  <si>
-    <t>Willigen</t>
-  </si>
-  <si>
-    <t>Bolscher</t>
-  </si>
-  <si>
-    <t>Elbertsen</t>
-  </si>
-  <si>
-    <t>Garderen</t>
-  </si>
-  <si>
-    <t>Hotting</t>
-  </si>
-  <si>
-    <t>Hove</t>
-  </si>
-  <si>
-    <t>Hazeleger</t>
-  </si>
-  <si>
-    <t>Voortman</t>
-  </si>
-  <si>
-    <t>Langenhof</t>
-  </si>
-  <si>
-    <t>Vliet</t>
-  </si>
-  <si>
-    <t>Bleijenberg</t>
-  </si>
-  <si>
-    <t>Assink</t>
-  </si>
-  <si>
-    <t>Looze</t>
-  </si>
-  <si>
-    <t>Nanninga</t>
-  </si>
-  <si>
-    <t>Bettink</t>
-  </si>
-  <si>
-    <t>Oudendorp</t>
-  </si>
-  <si>
-    <t>Velthuizen</t>
-  </si>
-  <si>
-    <t>Beltman</t>
-  </si>
-  <si>
-    <t>Wessels</t>
-  </si>
-  <si>
-    <t>Knol</t>
-  </si>
-  <si>
-    <t>Nijsink</t>
-  </si>
-  <si>
-    <t>Zande</t>
-  </si>
-  <si>
-    <t>Dijk</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Hertgers</t>
-  </si>
-  <si>
-    <t>Broek</t>
-  </si>
-  <si>
-    <t>Kok</t>
-  </si>
-  <si>
-    <t>Vliert</t>
-  </si>
-  <si>
-    <t>Bronkhorst</t>
-  </si>
-  <si>
-    <t>Smelt</t>
-  </si>
-  <si>
-    <t>Kolk</t>
-  </si>
-  <si>
-    <t>Hop</t>
-  </si>
-  <si>
-    <t>Verheul</t>
-  </si>
-  <si>
-    <t>Vijfhuizen</t>
-  </si>
-  <si>
-    <t>Leerdam</t>
-  </si>
-  <si>
-    <t>Timmerman</t>
-  </si>
-  <si>
-    <t>Kranendonk</t>
-  </si>
-  <si>
-    <t>Manen</t>
-  </si>
-  <si>
-    <t>Harmsel</t>
-  </si>
-  <si>
-    <t>Hartingsveldt</t>
-  </si>
-  <si>
-    <t>Kuijt</t>
-  </si>
-  <si>
-    <t>Wette</t>
-  </si>
-  <si>
-    <t>Deuveren</t>
-  </si>
-  <si>
-    <t>Olthuis</t>
-  </si>
-  <si>
-    <t>Slikke</t>
-  </si>
-  <si>
-    <t>Spanje</t>
-  </si>
-  <si>
-    <t>Lenstra</t>
-  </si>
-  <si>
-    <t>Mijnheer</t>
-  </si>
-  <si>
-    <t>Schuurman</t>
-  </si>
-  <si>
-    <t>Vinke</t>
-  </si>
-  <si>
-    <t>Wijnne</t>
-  </si>
-  <si>
-    <t>Imminkhuizen</t>
-  </si>
-  <si>
-    <t>Kroon</t>
-  </si>
-  <si>
-    <t>Meems</t>
-  </si>
-  <si>
-    <t>Schipper</t>
-  </si>
-  <si>
-    <t>Vlijm</t>
-  </si>
-  <si>
-    <t>Ligtenberg</t>
-  </si>
-  <si>
-    <t>Boers</t>
-  </si>
-  <si>
-    <t>Hazelhorst</t>
-  </si>
-  <si>
-    <t>Brinks</t>
-  </si>
-  <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>Altink</t>
-  </si>
-  <si>
-    <t>Schee</t>
-  </si>
-  <si>
-    <t>Engberts</t>
-  </si>
-  <si>
-    <t>Leusink</t>
-  </si>
-  <si>
-    <t>Schuitemaker</t>
-  </si>
-  <si>
-    <t>Kanis</t>
-  </si>
-  <si>
-    <t>Kraa</t>
-  </si>
-  <si>
-    <t>Dommerholt</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>Pap</t>
-  </si>
-  <si>
-    <t>Sprakel</t>
-  </si>
-  <si>
-    <t>Klaveren</t>
-  </si>
-  <si>
-    <t>Beldman</t>
-  </si>
-  <si>
-    <t>Rutterkamp</t>
-  </si>
-  <si>
-    <t>Bom</t>
-  </si>
-  <si>
-    <t>Haitsma</t>
-  </si>
-  <si>
-    <t>Laarman</t>
-  </si>
-  <si>
-    <t>Schokker</t>
   </si>
   <si>
     <t>E-mail</t>
   </si>
   <si>
-    <t>182131@leerlingen.jfsg.nl</t>
+    <t>Gebruiker1</t>
   </si>
   <si>
-    <t>180503@leerlingen.jfsg.nl</t>
+    <t>Gebruiker2</t>
   </si>
   <si>
-    <t>179350@leerlingen.jfsg.nl</t>
+    <t>Gebruiker3</t>
   </si>
   <si>
-    <t>180385@leerlingen.jfsg.nl</t>
+    <t>Gebruiker4</t>
   </si>
   <si>
-    <t>179346@leerlingen.jfsg.nl</t>
+    <t>Gebruiker5</t>
   </si>
   <si>
-    <t>175251@leerlingen.jfsg.nl</t>
+    <t>Gebruiker6</t>
   </si>
   <si>
-    <t>168853@leerlingen.jfsg.nl</t>
+    <t>Gebruiker8</t>
   </si>
   <si>
-    <t>180490@leerlingen.jfsg.nl</t>
+    <t>Gebruiker2@Gebruiker2.nl</t>
   </si>
   <si>
-    <t>180479@leerlingen.jfsg.nl</t>
+    <t>Gebruiker1@Gebruiker1.nl</t>
   </si>
   <si>
-    <t>179815@leerlingen.jfsg.nl</t>
+    <t>Gebruiker3@Gebruiker3.nl</t>
   </si>
   <si>
-    <t>174500@leerlingen.jfsg.nl</t>
+    <t>Gebruiker4@Gebruiker4.nl</t>
   </si>
   <si>
-    <t>174903@leerlingen.jfsg.nl</t>
+    <t>Gebruiker5@Gebruiker5.nl</t>
   </si>
   <si>
-    <t>179463@leerlingen.jfsg.nl</t>
+    <t>Gebruiker6@Gebruiker6.nl</t>
   </si>
   <si>
-    <t>179276@leerlingen.jfsg.nl</t>
+    <t>Gebruiker7@Gebruiker7.nl</t>
   </si>
   <si>
-    <t>180160@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185231@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179733@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179802@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179959@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179452@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180181@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185234@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180483@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>168993@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179955@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180048@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179406@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180246@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179821@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179954@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179429@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180178@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179319@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179953@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174934@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>176758@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179818@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179918@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180236@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180011@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175139@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179977@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179986@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180012@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180500@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174430@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179701@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179426@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179983@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180468@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174763@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174908@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174894@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174493@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>181273@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180394@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179375@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179820@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179435@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179952@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185549@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180244@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180384@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174479@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179957@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180231@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180476@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180087@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180140@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179384@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180063@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179675@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180313@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180482@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174992@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180250@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179281@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179451@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179511@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179984@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180481@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185239@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179434@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>168844@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175231@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175209@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185236@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179509@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180228@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180108@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180122@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180114@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179457@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174889@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174689@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180120@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175203@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180206@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179416@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>173858@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178988@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179864@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179871@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178884@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179753@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175104@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179187@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179873@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179875@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179877@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179207@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174995@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>173809@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179215@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179196@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179217@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179220@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178919@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179469@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175304@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175299@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179720@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175258@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179226@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175205@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178977@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179747@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178980@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175826@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175007@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178883@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180280@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175267@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179874@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179758@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179190@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175021@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179198@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>173774@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180222@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>174790@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178903@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179718@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179249@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179715@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>178907@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179222@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>185527@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>180200@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>175047@leerlingen.jfsg.nl</t>
-  </si>
-  <si>
-    <t>179224@leerlingen.jfsg.nl</t>
+    <t>Gebruiker8@Gebruiker8.nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1342,6 +103,12 @@
       <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1396,10 +163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1410,8 +178,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1760,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1781,19 +553,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>182131</v>
       </c>
@@ -1801,19 +573,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>149</v>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>180503</v>
       </c>
@@ -1821,17 +591,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>286</v>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>179350</v>
       </c>
@@ -1839,17 +609,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>287</v>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>180385</v>
       </c>
@@ -1857,835 +627,399 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>150</v>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>175</v>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>179346</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>289</v>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>175251</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>149</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>194</v>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>168853</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>291</v>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>180490</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>292</v>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>180479</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>293</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>179815</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>174500</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>295</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>174903</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>296</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>179463</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>297</v>
-      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>179276</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>298</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>180160</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>185231</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>179733</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>179802</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>179959</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>303</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>179452</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>180181</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>185234</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>180483</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>168993</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>179955</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>180048</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>179406</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>180246</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>312</v>
-      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>179821</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>313</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>179954</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>314</v>
-      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>179429</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>180178</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>316</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>179319</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>179953</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>174934</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>176758</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>179818</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>321</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>179918</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>180236</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>180011</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>175139</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>179977</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>326</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>179986</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>327</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>180012</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>328</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>180500</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>329</v>
-      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>174430</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>330</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>179701</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>331</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -2696,528 +1030,228 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>179426</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>332</v>
-      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>179983</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>333</v>
-      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>180468</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>334</v>
-      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>174763</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>335</v>
-      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>174908</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>336</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>174894</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>174493</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>338</v>
-      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>181273</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>339</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>180394</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>179375</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>341</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>179820</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>342</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>179435</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>343</v>
-      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>179952</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>344</v>
-      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>185549</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>345</v>
-      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>180244</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>346</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>180384</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>347</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>174479</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>348</v>
-      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>179957</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>349</v>
-      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>180231</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>180476</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>351</v>
-      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>180087</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>352</v>
-      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>180140</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>353</v>
-      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>179384</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>354</v>
-      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>180063</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>355</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>179675</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>356</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>180313</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>357</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>180482</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>358</v>
-      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>174992</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>359</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
@@ -3228,454 +1262,196 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>180250</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>179281</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>361</v>
-      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>179451</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>179511</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>179984</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>180481</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>185239</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>179434</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>168844</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>175231</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>175209</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>185236</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>179509</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>372</v>
-      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>180228</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>180108</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>180122</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>180114</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>376</v>
-      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>179457</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>174889</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>378</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>174689</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>379</v>
-      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>180120</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>175203</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>381</v>
-      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>180206</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>179416</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
@@ -3686,482 +1462,212 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>173858</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>384</v>
-      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>178988</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>179864</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>179871</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>178884</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>179753</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>175104</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>179187</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>179873</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>179875</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>179877</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>179207</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>174995</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>173809</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>179215</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>179196</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>179217</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>179220</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>401</v>
-      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>178919</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>179469</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>175304</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>175299</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>179720</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>406</v>
-      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>175258</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>179226</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>408</v>
-      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>175205</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
@@ -4172,480 +1678,212 @@
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>178977</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>179747</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>411</v>
-      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>178980</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>175826</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>175007</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>178883</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>415</v>
-      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>180280</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>175267</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>179874</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>418</v>
-      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>179758</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>179190</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>420</v>
-      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>175021</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>421</v>
-      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>179198</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>422</v>
-      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>173774</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>180222</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>424</v>
-      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>174790</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>425</v>
-      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>178903</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>179718</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>427</v>
-      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>179249</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>179715</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>429</v>
-      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>178907</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>430</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>179222</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>431</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>185527</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>432</v>
-      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>180200</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>175047</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>434</v>
-      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>179224</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>435</v>
-      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
@@ -9088,6 +6326,16 @@
       <c r="F711" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Havo-leerlingenlijst_JF_totaal.xlsx
+++ b/Havo-leerlingenlijst_JF_totaal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Henri\Dropbox\KBS\Excel documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Project Windesheim\Windesheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="436">
   <si>
     <t>Stamnr</t>
   </si>
@@ -33,68 +33,1307 @@
     <t>5Hb</t>
   </si>
   <si>
+    <t>5Hc</t>
+  </si>
+  <si>
+    <t>5Hd</t>
+  </si>
+  <si>
+    <t>R5Ha</t>
+  </si>
+  <si>
+    <t>R5Hb</t>
+  </si>
+  <si>
     <t>Roepnaam</t>
   </si>
   <si>
+    <t>Fabiënne</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Maurits</t>
+  </si>
+  <si>
+    <t>Arnoud</t>
+  </si>
+  <si>
+    <t>Jarno</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Lilian</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Gerlinde</t>
+  </si>
+  <si>
+    <t>Nienke</t>
+  </si>
+  <si>
+    <t>Rutger</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Eline</t>
+  </si>
+  <si>
+    <t>Rosanne</t>
+  </si>
+  <si>
+    <t>Gerjan</t>
+  </si>
+  <si>
+    <t>Arno</t>
+  </si>
+  <si>
+    <t>Jorian</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>Marit</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Jacco</t>
+  </si>
+  <si>
+    <t>Laurens</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Daniëlle</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Wilbert</t>
+  </si>
+  <si>
+    <t>Leanne</t>
+  </si>
+  <si>
+    <t>Geert</t>
+  </si>
+  <si>
+    <t>Daniël</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Maaike</t>
+  </si>
+  <si>
+    <t>Diederick</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Dianne</t>
+  </si>
+  <si>
+    <t>Arjan</t>
+  </si>
+  <si>
+    <t>Anne-Wil</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Pieter</t>
+  </si>
+  <si>
+    <t>Marije</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>Kees-Jan</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Niek</t>
+  </si>
+  <si>
+    <t>Inge</t>
+  </si>
+  <si>
+    <t>Danique</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Sanne</t>
+  </si>
+  <si>
+    <t>Jelle</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Anne-Ruth</t>
+  </si>
+  <si>
+    <t>Henk</t>
+  </si>
+  <si>
+    <t>Gert-Jan</t>
+  </si>
+  <si>
+    <t>Daan</t>
+  </si>
+  <si>
+    <t>Teun</t>
+  </si>
+  <si>
+    <t>Mirjam</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Marinke</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Christa</t>
+  </si>
+  <si>
+    <t>Evert</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Lieke</t>
+  </si>
+  <si>
+    <t>Josan</t>
+  </si>
+  <si>
+    <t>Anouk</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Marjolein</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Marijn</t>
+  </si>
+  <si>
+    <t>Lennard</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Karine</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Renske</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Gerbert</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Anneleen</t>
+  </si>
+  <si>
+    <t>Marten</t>
+  </si>
+  <si>
+    <t>Bert Jan</t>
+  </si>
+  <si>
+    <t>Jari</t>
+  </si>
+  <si>
+    <t>Erjan</t>
+  </si>
+  <si>
+    <t>Elseline</t>
+  </si>
+  <si>
+    <t>Leindert</t>
+  </si>
+  <si>
+    <t>Cornélie</t>
+  </si>
+  <si>
+    <t>Eric-Jan</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Nannyke</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Margreet</t>
+  </si>
+  <si>
+    <t>Bertina</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Alyke</t>
+  </si>
+  <si>
+    <t>Harm Jan</t>
+  </si>
+  <si>
+    <t>Gijs</t>
+  </si>
+  <si>
+    <t>Ralphine</t>
+  </si>
+  <si>
+    <t>Marwin</t>
+  </si>
+  <si>
+    <t>Gerrelt</t>
+  </si>
+  <si>
+    <t>Henriëtte</t>
+  </si>
+  <si>
+    <t>Celia</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Hielke</t>
+  </si>
+  <si>
+    <t>Hanneke</t>
+  </si>
+  <si>
+    <t>Annebeth</t>
+  </si>
+  <si>
+    <t>Adrianne</t>
+  </si>
+  <si>
+    <t>Roelina</t>
+  </si>
+  <si>
+    <t>Lucie</t>
+  </si>
+  <si>
+    <t>Hennekien</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Jansje</t>
+  </si>
+  <si>
+    <t>Meindert</t>
+  </si>
+  <si>
+    <t>Annemarije</t>
+  </si>
+  <si>
+    <t>Teunita</t>
+  </si>
+  <si>
+    <t>Peterick</t>
+  </si>
+  <si>
+    <t>Henrieke</t>
+  </si>
+  <si>
+    <t>Bertran</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Eleanne</t>
+  </si>
+  <si>
+    <t>Marnelle</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Pieter-Jan</t>
+  </si>
+  <si>
+    <t>Hein</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Ernst-Jan</t>
+  </si>
+  <si>
+    <t>Harriët</t>
+  </si>
+  <si>
+    <t>Arina</t>
+  </si>
+  <si>
+    <t>Jan-Peter</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Elsbeth</t>
+  </si>
+  <si>
+    <t>Naomy</t>
+  </si>
+  <si>
+    <t>Jorike</t>
+  </si>
+  <si>
+    <t>Gerrike</t>
+  </si>
+  <si>
+    <t>Jan Albert</t>
+  </si>
+  <si>
+    <t>Gabriëlla</t>
+  </si>
+  <si>
+    <t>Wolter</t>
+  </si>
+  <si>
+    <t>Kars</t>
+  </si>
+  <si>
     <t>Tussenv</t>
   </si>
   <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>van den</t>
+  </si>
+  <si>
+    <t>van de</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>van der</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>ter</t>
+  </si>
+  <si>
     <t>Achternaam</t>
   </si>
   <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Ebbers</t>
+  </si>
+  <si>
+    <t>Munt</t>
+  </si>
+  <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Brink</t>
+  </si>
+  <si>
+    <t>Ruitenbeek</t>
+  </si>
+  <si>
+    <t>Ruiter</t>
+  </si>
+  <si>
+    <t>Weerd</t>
+  </si>
+  <si>
+    <t>Jansen</t>
+  </si>
+  <si>
+    <t>Keurhorst</t>
+  </si>
+  <si>
+    <t>Methorst</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bunt</t>
+  </si>
+  <si>
+    <t>Hertog</t>
+  </si>
+  <si>
+    <t>Veldhuizen</t>
+  </si>
+  <si>
+    <t>Bruin</t>
+  </si>
+  <si>
+    <t>Heij</t>
+  </si>
+  <si>
+    <t>Haar</t>
+  </si>
+  <si>
+    <t>Kooten</t>
+  </si>
+  <si>
+    <t>Luttikhuizen</t>
+  </si>
+  <si>
+    <t>Guis</t>
+  </si>
+  <si>
+    <t>Linden</t>
+  </si>
+  <si>
+    <t>Nijkamp</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Haase</t>
+  </si>
+  <si>
+    <t>Jong</t>
+  </si>
+  <si>
+    <t>Karels</t>
+  </si>
+  <si>
+    <t>Mulder</t>
+  </si>
+  <si>
+    <t>Riet</t>
+  </si>
+  <si>
+    <t>Hendrikse</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Pouw</t>
+  </si>
+  <si>
+    <t>Beek</t>
+  </si>
+  <si>
+    <t>Roo</t>
+  </si>
+  <si>
+    <t>Roos</t>
+  </si>
+  <si>
+    <t>Warnaar van der Stouw</t>
+  </si>
+  <si>
+    <t>Hoorn</t>
+  </si>
+  <si>
+    <t>Wolvers</t>
+  </si>
+  <si>
+    <t>Baan</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Schouten</t>
+  </si>
+  <si>
+    <t>Veldhuisen</t>
+  </si>
+  <si>
+    <t>Roekel</t>
+  </si>
+  <si>
+    <t>Terlouw</t>
+  </si>
+  <si>
+    <t>Voorde</t>
+  </si>
+  <si>
+    <t>Hakkenberg</t>
+  </si>
+  <si>
+    <t>Slingerland</t>
+  </si>
+  <si>
+    <t>Willigen</t>
+  </si>
+  <si>
+    <t>Bolscher</t>
+  </si>
+  <si>
+    <t>Elbertsen</t>
+  </si>
+  <si>
+    <t>Garderen</t>
+  </si>
+  <si>
+    <t>Hotting</t>
+  </si>
+  <si>
+    <t>Hove</t>
+  </si>
+  <si>
+    <t>Hazeleger</t>
+  </si>
+  <si>
+    <t>Voortman</t>
+  </si>
+  <si>
+    <t>Langenhof</t>
+  </si>
+  <si>
+    <t>Vliet</t>
+  </si>
+  <si>
+    <t>Bleijenberg</t>
+  </si>
+  <si>
+    <t>Assink</t>
+  </si>
+  <si>
+    <t>Looze</t>
+  </si>
+  <si>
+    <t>Nanninga</t>
+  </si>
+  <si>
+    <t>Bettink</t>
+  </si>
+  <si>
+    <t>Oudendorp</t>
+  </si>
+  <si>
+    <t>Velthuizen</t>
+  </si>
+  <si>
+    <t>Beltman</t>
+  </si>
+  <si>
+    <t>Wessels</t>
+  </si>
+  <si>
+    <t>Knol</t>
+  </si>
+  <si>
+    <t>Nijsink</t>
+  </si>
+  <si>
+    <t>Zande</t>
+  </si>
+  <si>
+    <t>Dijk</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Hertgers</t>
+  </si>
+  <si>
+    <t>Broek</t>
+  </si>
+  <si>
+    <t>Kok</t>
+  </si>
+  <si>
+    <t>Vliert</t>
+  </si>
+  <si>
+    <t>Bronkhorst</t>
+  </si>
+  <si>
+    <t>Smelt</t>
+  </si>
+  <si>
+    <t>Kolk</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>Verheul</t>
+  </si>
+  <si>
+    <t>Vijfhuizen</t>
+  </si>
+  <si>
+    <t>Leerdam</t>
+  </si>
+  <si>
+    <t>Timmerman</t>
+  </si>
+  <si>
+    <t>Kranendonk</t>
+  </si>
+  <si>
+    <t>Manen</t>
+  </si>
+  <si>
+    <t>Harmsel</t>
+  </si>
+  <si>
+    <t>Hartingsveldt</t>
+  </si>
+  <si>
+    <t>Kuijt</t>
+  </si>
+  <si>
+    <t>Wette</t>
+  </si>
+  <si>
+    <t>Deuveren</t>
+  </si>
+  <si>
+    <t>Olthuis</t>
+  </si>
+  <si>
+    <t>Slikke</t>
+  </si>
+  <si>
+    <t>Spanje</t>
+  </si>
+  <si>
+    <t>Lenstra</t>
+  </si>
+  <si>
+    <t>Mijnheer</t>
+  </si>
+  <si>
+    <t>Schuurman</t>
+  </si>
+  <si>
+    <t>Vinke</t>
+  </si>
+  <si>
+    <t>Wijnne</t>
+  </si>
+  <si>
+    <t>Imminkhuizen</t>
+  </si>
+  <si>
+    <t>Kroon</t>
+  </si>
+  <si>
+    <t>Meems</t>
+  </si>
+  <si>
+    <t>Schipper</t>
+  </si>
+  <si>
+    <t>Vlijm</t>
+  </si>
+  <si>
+    <t>Ligtenberg</t>
+  </si>
+  <si>
+    <t>Boers</t>
+  </si>
+  <si>
+    <t>Hazelhorst</t>
+  </si>
+  <si>
+    <t>Brinks</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Altink</t>
+  </si>
+  <si>
+    <t>Schee</t>
+  </si>
+  <si>
+    <t>Engberts</t>
+  </si>
+  <si>
+    <t>Leusink</t>
+  </si>
+  <si>
+    <t>Schuitemaker</t>
+  </si>
+  <si>
+    <t>Kanis</t>
+  </si>
+  <si>
+    <t>Kraa</t>
+  </si>
+  <si>
+    <t>Dommerholt</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Pap</t>
+  </si>
+  <si>
+    <t>Sprakel</t>
+  </si>
+  <si>
+    <t>Klaveren</t>
+  </si>
+  <si>
+    <t>Beldman</t>
+  </si>
+  <si>
+    <t>Rutterkamp</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Haitsma</t>
+  </si>
+  <si>
+    <t>Laarman</t>
+  </si>
+  <si>
+    <t>Schokker</t>
+  </si>
+  <si>
     <t>E-mail</t>
   </si>
   <si>
-    <t>Gebruiker1</t>
-  </si>
-  <si>
-    <t>Gebruiker2</t>
-  </si>
-  <si>
-    <t>Gebruiker3</t>
-  </si>
-  <si>
-    <t>Gebruiker4</t>
-  </si>
-  <si>
-    <t>Gebruiker5</t>
-  </si>
-  <si>
-    <t>Gebruiker6</t>
-  </si>
-  <si>
-    <t>Gebruiker8</t>
-  </si>
-  <si>
-    <t>Gebruiker2@Gebruiker2.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker1@Gebruiker1.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker3@Gebruiker3.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker4@Gebruiker4.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker5@Gebruiker5.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker6@Gebruiker6.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker7@Gebruiker7.nl</t>
-  </si>
-  <si>
-    <t>Gebruiker8@Gebruiker8.nl</t>
+    <t>182131@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180503@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179350@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180385@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179346@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175251@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>168853@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180490@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180479@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179815@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174500@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174903@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179463@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179276@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180160@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185231@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179733@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179802@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179959@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179452@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180181@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185234@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180483@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>168993@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179955@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180048@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179406@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180246@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179821@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179954@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179429@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180178@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179319@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179953@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174934@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>176758@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179818@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179918@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180236@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180011@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175139@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179977@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179986@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180012@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180500@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174430@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179701@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179426@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179983@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180468@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174763@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174908@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174894@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174493@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>181273@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180394@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179375@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179820@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179435@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179952@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185549@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180244@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180384@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174479@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179957@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180231@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180476@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180087@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180140@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179384@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180063@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179675@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180313@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180482@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174992@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180250@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179281@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179451@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179511@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179984@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180481@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185239@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179434@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>168844@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175231@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175209@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185236@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179509@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180228@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180108@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180122@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180114@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179457@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174889@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174689@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180120@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175203@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180206@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179416@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>173858@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178988@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179864@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179871@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178884@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179753@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175104@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179187@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179873@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179875@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179877@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179207@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174995@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>173809@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179215@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179196@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179217@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179220@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178919@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179469@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175304@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175299@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179720@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175258@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179226@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175205@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178977@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179747@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178980@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175826@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175007@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178883@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180280@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175267@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179874@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179758@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179190@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175021@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179198@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>173774@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180222@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>174790@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178903@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179718@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179249@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179715@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>178907@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179222@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>185527@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>180200@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>175047@leerlingen.jfsg.nl</t>
+  </si>
+  <si>
+    <t>179224@leerlingen.jfsg.nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,12 +1342,6 @@
       <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,11 +1396,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -178,12 +1410,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,19 +1781,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>182131</v>
       </c>
@@ -573,17 +1801,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>180503</v>
       </c>
@@ -591,17 +1821,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>179350</v>
       </c>
@@ -609,17 +1839,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>180385</v>
       </c>
@@ -627,399 +1857,835 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>179346</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>175251</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>168853</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>180490</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>231</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2">
+        <v>180479</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2">
+        <v>179815</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2">
+        <v>174500</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2">
+        <v>174903</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2">
+        <v>179463</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2">
+        <v>179276</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2">
+        <v>180160</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="2">
+        <v>185231</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="2">
+        <v>179733</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="2">
+        <v>179802</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="2">
+        <v>179959</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="2">
+        <v>179452</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2">
+        <v>180181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2">
+        <v>185234</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="2">
+        <v>180483</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="2">
+        <v>168993</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="2">
+        <v>179955</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2">
+        <v>180048</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="2">
+        <v>179406</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2">
+        <v>180246</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="2">
+        <v>179821</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2">
+        <v>179954</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2">
+        <v>179429</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2">
+        <v>180178</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2">
+        <v>179319</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="2">
+        <v>179953</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="2">
+        <v>174934</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="2">
+        <v>176758</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="2">
+        <v>179818</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2">
+        <v>179918</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2">
+        <v>180236</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="2">
+        <v>180011</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="2">
+        <v>175139</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="A43" s="2">
+        <v>179977</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="2">
+        <v>179986</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="2">
+        <v>180012</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="2">
+        <v>180500</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="2">
+        <v>174430</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="2">
+        <v>179701</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1030,228 +2696,528 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="2">
+        <v>179426</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2">
+        <v>179983</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="2">
+        <v>180468</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="2">
+        <v>174763</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="A54" s="2">
+        <v>174908</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2">
+        <v>174894</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="2">
+        <v>174493</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="A57" s="2">
+        <v>181273</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="2">
+        <v>180394</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="A59" s="2">
+        <v>179375</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="A60" s="2">
+        <v>179820</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="2">
+        <v>179435</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="2">
+        <v>179952</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="2">
+        <v>185549</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="A64" s="2">
+        <v>180244</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="A65" s="2">
+        <v>180384</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="2">
+        <v>174479</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="2">
+        <v>179957</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="2">
+        <v>180231</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="2">
+        <v>180476</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="2">
+        <v>180087</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="2">
+        <v>180140</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="2">
+        <v>179384</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="A73" s="2">
+        <v>180063</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="A74" s="2">
+        <v>179675</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="A75" s="2">
+        <v>180313</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="2">
+        <v>180482</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="A77" s="2">
+        <v>174992</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
@@ -1262,196 +3228,454 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="A79" s="2">
+        <v>180250</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2">
+        <v>179281</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="A81" s="2">
+        <v>179451</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2">
+        <v>179511</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="A83" s="2">
+        <v>179984</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2">
+        <v>180481</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2">
+        <v>185239</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="A86" s="2">
+        <v>179434</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2">
+        <v>168844</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="A88" s="2">
+        <v>175231</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2">
+        <v>175209</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2">
+        <v>185236</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2">
+        <v>179509</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2">
+        <v>180228</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="A93" s="2">
+        <v>180108</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="A94" s="2">
+        <v>180122</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2">
+        <v>180114</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2">
+        <v>179457</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="A97" s="2">
+        <v>174889</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2">
+        <v>174689</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="2">
+        <v>180120</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="2">
+        <v>175203</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="A101" s="2">
+        <v>180206</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="2">
+        <v>179416</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
@@ -1462,212 +3686,482 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="2">
+        <v>173858</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="2">
+        <v>178988</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="A106" s="2">
+        <v>179864</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="A107" s="2">
+        <v>179871</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="2">
+        <v>178884</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="2">
+        <v>179753</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="2">
+        <v>175104</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="2">
+        <v>179187</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="2">
+        <v>179873</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="A113" s="2">
+        <v>179875</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="2">
+        <v>179877</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="2">
+        <v>179207</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="A116" s="2">
+        <v>174995</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="2">
+        <v>173809</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="A118" s="2">
+        <v>179215</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="2">
+        <v>179196</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="2">
+        <v>179217</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="2">
+        <v>179220</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="2">
+        <v>178919</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="2">
+        <v>179469</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="2">
+        <v>175304</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="2">
+        <v>175299</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="2">
+        <v>179720</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="2">
+        <v>175258</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="2">
+        <v>179226</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="2">
+        <v>175205</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
@@ -1678,212 +4172,480 @@
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="2">
+        <v>178977</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="2">
+        <v>179747</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="2">
+        <v>178980</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="A134" s="2">
+        <v>175826</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="2">
+        <v>175007</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="2">
+        <v>178883</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="2">
+        <v>180280</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="2">
+        <v>175267</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="2">
+        <v>179874</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="A140" s="2">
+        <v>179758</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="2">
+        <v>179190</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="2">
+        <v>175021</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="2">
+        <v>179198</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="2">
+        <v>173774</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="2">
+        <v>180222</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="2">
+        <v>174790</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="2">
+        <v>178903</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="2">
+        <v>179718</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="2">
+        <v>179249</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="2">
+        <v>179715</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="A151" s="2">
+        <v>178907</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="A152" s="2">
+        <v>179222</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="2">
+        <v>185527</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="2">
+        <v>180200</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="2">
+        <v>175047</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="2">
+        <v>179224</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
@@ -6326,16 +9088,6 @@
       <c r="F711" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>